--- a/WorkBot/main/backend/ordering/OrderFiles/Peters Supply/Peters Supply_EASTHILL_20250307.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/Peters Supply/Peters Supply_EASTHILL_20250307.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,60 +502,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1008868</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Glove Nitrile - Large</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>26.25</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>26.25</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1008838</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Glove Nitrile - Med</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>26.25</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>26.25</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
